--- a/data/沈曹甲骨文.xlsx
+++ b/data/沈曹甲骨文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\oracle-bone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643267AB-125C-4FC9-9047-BCBD660E94EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5091FA8A-53CF-4E37-902C-ED5D07288080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43140" yWindow="0" windowWidth="14565" windowHeight="16305" xr2:uid="{24B2F191-CE89-48DA-84F1-59EEAEA4E837}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="8385" windowHeight="16305" xr2:uid="{24B2F191-CE89-48DA-84F1-59EEAEA4E837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8147" uniqueCount="7895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8904" uniqueCount="8536">
   <si>
     <t></t>
   </si>
@@ -25281,6 +25281,2565 @@
   </si>
   <si>
     <t>H21099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㴪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD060A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自𠔁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0714A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰄩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自卣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰自丮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自丙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自叀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰自攵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰯴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0713A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱自肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0721A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0721B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0722A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS733</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰴭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𧫿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𮗹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰𠶷刂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0729A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36181A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS39A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36975B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H28203C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H41770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0733</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H25900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H17173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0739A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0739B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰克又</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱子克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H18002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰克丮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0741A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H18100B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0741C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0742D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0742E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0743F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0743G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3378H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3379I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𪠁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0798A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2216B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H23702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0793A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3509B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0749A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0749B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱夕名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0752A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0753B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0753C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0876D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱吅乂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰⿱吅乂攵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱冖喿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0758A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㗊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0759</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11396</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱比口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0783</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𫩨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B01296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H19801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H13885A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱口井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰亻涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿴〢步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0802A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0863B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0808A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱止𬅶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𬅶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱𠔼止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𫲺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰙠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9188A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱宀𰙠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0895A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱止丙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰⿱止丙攵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰕏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱𦥑止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱𦥑𣥈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2886A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱⿴𦥑止丙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H18213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𣥈</t>
+  </si>
+  <si>
+    <t>HD088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H19896A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱爫巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H21734A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H24933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0823A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H15857B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𣥖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H33399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS1298A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰⿱𠂤二正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9743A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H10026B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0305C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿳𫝀宁㐄</t>
+  </si>
+  <si>
+    <t>H8919D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿲⿱木木韋⿱木木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0829A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0829B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0829C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H32783D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0883E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H13693F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0831A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱止幺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*0832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H24942A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0832B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱止⿲冫幺⿱丿丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H23805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿳止幺𠬞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱幺夂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD427A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0833B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H41423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0835A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰先又</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD009A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0836A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0836B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0836C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱土止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H21921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0838A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22323B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0839A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0839B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6998C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱夂大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱𣥖卩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0842</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H28751A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𣏔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0843A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2484B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0845A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𥎩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0846A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0846B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22441C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6656D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱止𰦖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H14068A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0849</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0849A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱夂禾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱夂袁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0852A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8620A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4659B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8619C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0854D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0886E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H15448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𭭟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H10936A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H14777B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰彳𤼧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𣥳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1282A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3417C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H17055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H32987A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H32770B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6977C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0068D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0867E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疐</t>
+  </si>
+  <si>
+    <t>H37769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0889A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0868B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H37753C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31034D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H41606E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H19085F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2903A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD187A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0870B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱复山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱㿝夂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0872A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H15483B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H33690C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰌠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱秝止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱禾止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱林止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱不止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱夂羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰋎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1619A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0882B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱東止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𬨮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0890A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱⿰卩𰆋止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0382A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H16934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱己止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H25975A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31764</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱⿰卜又止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又、右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H13937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H30353C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芻</t>
+  </si>
+  <si>
+    <t>0914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0914A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱𱼀𠬞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3650A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𰆲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD115A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0928A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H32289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H17101A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰石又</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0938A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㘝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0944</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H26810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H32014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H28002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS1098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0953A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0955</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𫨶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰氵彝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𠬞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰𠬢𠬢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𭆲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H24462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爰</t>
+  </si>
+  <si>
+    <t>1033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰丨㕛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1034A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱⿰丨㕛口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1036A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2537B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𫤮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22537A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1038B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱𠬞才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H21308A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𭠎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱午𠬞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H41494A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰月攵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱舂木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD011B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1044A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1047A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1047B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿱畐𠬞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3317A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H21886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H18686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H13884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H18184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H39423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM150正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3517A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰𠂈設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>𬆬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰工殳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰卯殳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0951</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25681,8 +28240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAEDF49-1FEE-415F-BD4D-AB8D2A8F597D}">
   <dimension ref="A1:D6350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A1526" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1537" sqref="C1537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39654,3744 +42213,6015 @@
       <c r="B1072" s="1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="1073" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1072" s="2" t="s">
+        <v>7895</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>7896</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1073" s="3">
         <v>1072</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="1074" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1073" s="2" t="s">
+        <v>7906</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1074" s="3">
         <v>1073</v>
       </c>
       <c r="B1074" s="1" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="1075" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1074" s="2" t="s">
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1075" s="3">
         <v>1074</v>
       </c>
       <c r="B1075" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="1076" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1075" s="2" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1076" s="3">
         <v>1075</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="1077" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1076" s="2" t="s">
+        <v>7909</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1077" s="3">
         <v>1076</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="1078" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1077" s="2" t="s">
+        <v>7911</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1078" s="3">
         <v>1077</v>
       </c>
       <c r="B1078" s="1" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="1079" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1078" s="2" t="s">
+        <v>7898</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>7899</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1079" s="3">
         <v>1078</v>
       </c>
       <c r="B1079" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1080" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1079" s="2" t="s">
+        <v>7902</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1080" s="3">
         <v>1079</v>
       </c>
       <c r="B1080" s="1" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="1081" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1080" s="2" t="s">
+        <v>7900</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>7901</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1081" s="3">
         <v>1080</v>
       </c>
       <c r="B1081" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="1082" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1081" s="2" t="s">
+        <v>7904</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1082" s="3">
         <v>1081</v>
       </c>
       <c r="B1082" s="1" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="1083" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1082" s="2" t="s">
+        <v>7913</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1083" s="3">
         <v>1082</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="1084" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1083" s="2" t="s">
+        <v>7915</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>7916</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1084" s="3">
         <v>1083</v>
       </c>
       <c r="B1084" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="1085" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1084" s="2" t="s">
+        <v>7917</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>7918</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1085" s="3">
         <v>1084</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="1086" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1085" s="2" t="s">
+        <v>7919</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1086" s="3">
         <v>1085</v>
       </c>
       <c r="B1086" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="1087" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1086" s="2" t="s">
+        <v>7921</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>7922</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1087" s="3">
         <v>1086</v>
       </c>
       <c r="B1087" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="1088" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1087" s="2" t="s">
+        <v>7923</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>7924</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1088" s="3">
         <v>1087</v>
       </c>
       <c r="B1088" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="1089" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1088" s="2" t="s">
+        <v>7925</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1089" s="3">
         <v>1088</v>
       </c>
       <c r="B1089" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="1090" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1089" s="2" t="s">
+        <v>7927</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1090" s="3">
         <v>1089</v>
       </c>
       <c r="B1090" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="1091" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1090" s="2" t="s">
+        <v>7927</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1091" s="3">
         <v>1090</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="1092" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1091" s="2" t="s">
+        <v>7930</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1092" s="3">
         <v>1091</v>
       </c>
       <c r="B1092" s="1" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="1093" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1092" s="2" t="s">
+        <v>7932</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1093" s="3">
         <v>1092</v>
       </c>
       <c r="B1093" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="1094" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1093" s="2" t="s">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1094" s="3">
         <v>1093</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="1095" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1094" s="2" t="s">
+        <v>7934</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1095" s="3">
         <v>1094</v>
       </c>
       <c r="B1095" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="1096" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1095" s="2" t="s">
+        <v>7936</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1096" s="3">
         <v>1095</v>
       </c>
       <c r="B1096" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="1097" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1096" s="2" t="s">
+        <v>7938</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1097" s="3">
         <v>1096</v>
       </c>
       <c r="B1097" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="1098" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1097" s="2" t="s">
+        <v>7940</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>7941</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1098" s="3">
         <v>1097</v>
       </c>
       <c r="B1098" s="1" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="1099" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1098" s="2" t="s">
+        <v>7942</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>7943</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1099" s="3">
         <v>1098</v>
       </c>
       <c r="B1099" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="1100" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1099" s="2" t="s">
+        <v>7942</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>7944</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1100" s="3">
         <v>1099</v>
       </c>
       <c r="B1100" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="1101" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1100" s="2" t="s">
+        <v>7942</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1101" s="3">
         <v>1100</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="1102" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1101" s="2" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1102" s="3">
         <v>1101</v>
       </c>
       <c r="B1102" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="1103" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1102" s="2" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>7948</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1103" s="3">
         <v>1102</v>
       </c>
       <c r="B1103" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="1104" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1103" s="2" t="s">
+        <v>7778</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1104" s="3">
         <v>1103</v>
       </c>
       <c r="B1104" s="1" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="1105" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1104" s="2" t="s">
+        <v>7949</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1105" s="3">
         <v>1104</v>
       </c>
       <c r="B1105" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="1106" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1105" s="2" t="s">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1106" s="3">
         <v>1105</v>
       </c>
       <c r="B1106" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="1107" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1106" s="2" t="s">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1107" s="3">
         <v>1106</v>
       </c>
       <c r="B1107" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="1108" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1107" s="2" t="s">
+        <v>7952</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>7953</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1108" s="3">
         <v>1107</v>
       </c>
       <c r="B1108" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="1109" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1108" s="4" t="s">
+        <v>7954</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1109" s="3">
         <v>1108</v>
       </c>
       <c r="B1109" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="1110" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1109" s="2" t="s">
+        <v>7956</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1110" s="3">
         <v>1109</v>
       </c>
       <c r="B1110" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="1111" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1110" s="2" t="s">
+        <v>7958</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1111" s="3">
         <v>1110</v>
       </c>
       <c r="B1111" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="1112" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1111" s="2" t="s">
+        <v>7959</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1112" s="3">
         <v>1111</v>
       </c>
       <c r="B1112" s="1" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="1113" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1112" s="2" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>7962</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1113" s="3">
         <v>1112</v>
       </c>
       <c r="B1113" s="1" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="1114" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1113" s="2" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D1113" s="2" t="s">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1114" s="3">
         <v>1113</v>
       </c>
       <c r="B1114" s="1" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="1115" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1114" s="2" t="s">
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1115" s="3">
         <v>1114</v>
       </c>
       <c r="B1115" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="1116" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1115" s="2" t="s">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1116" s="3">
         <v>1115</v>
       </c>
       <c r="B1116" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="1117" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1116" s="2" t="s">
+        <v>7966</v>
+      </c>
+      <c r="D1116" s="2" t="s">
+        <v>7967</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1117" s="3">
         <v>1116</v>
       </c>
       <c r="B1117" s="1" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="1118" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1117" s="2" t="s">
+        <v>7968</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1118" s="3">
         <v>1117</v>
       </c>
       <c r="B1118" s="1" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="1119" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1118" s="2" t="s">
+        <v>7968</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1119" s="3">
         <v>1118</v>
       </c>
       <c r="B1119" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="1120" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1119" s="2" t="s">
+        <v>7968</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1120" s="3">
         <v>1119</v>
       </c>
       <c r="B1120" s="1" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="1121" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1120" s="2" t="s">
+        <v>7968</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1121" s="3">
         <v>1120</v>
       </c>
       <c r="B1121" s="1" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="1122" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1121" s="2" t="s">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1122" s="3">
         <v>1121</v>
       </c>
       <c r="B1122" s="1" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="1123" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1122" s="2" t="s">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1123" s="3">
         <v>1122</v>
       </c>
       <c r="B1123" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="1124" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1123" s="2" t="s">
+        <v>7975</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1124" s="3">
         <v>1123</v>
       </c>
       <c r="B1124" s="1" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="1125" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1124" s="2" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1125" s="3">
         <v>1124</v>
       </c>
       <c r="B1125" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="1126" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1125" s="2" t="s">
+        <v>7979</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1126" s="3">
         <v>1125</v>
       </c>
       <c r="B1126" s="1" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="1127" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1126" s="2" t="s">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1127" s="3">
         <v>1126</v>
       </c>
       <c r="B1127" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="1128" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1127" s="2" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1128" s="3">
         <v>1127</v>
       </c>
       <c r="B1128" s="1" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="1129" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1128" s="2" t="s">
+        <v>7982</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1129" s="3">
         <v>1128</v>
       </c>
       <c r="B1129" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="1130" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1129" s="2" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1130" s="3">
         <v>1129</v>
       </c>
       <c r="B1130" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="1131" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1130" s="2" t="s">
+        <v>7984</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1131" s="3">
         <v>1130</v>
       </c>
       <c r="B1131" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="1132" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1131" s="2" t="s">
+        <v>7984</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1132" s="3">
         <v>1131</v>
       </c>
       <c r="B1132" s="1" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="1133" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1132" s="2" t="s">
+        <v>7984</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1133" s="3">
         <v>1132</v>
       </c>
       <c r="B1133" s="1" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="1134" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1133" s="2" t="s">
+        <v>7988</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1134" s="3">
         <v>1133</v>
       </c>
       <c r="B1134" s="1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="1135" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1134" s="2" t="s">
+        <v>7990</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>7991</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1135" s="3">
         <v>1134</v>
       </c>
       <c r="B1135" s="1" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="1136" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1135" s="2" t="s">
+        <v>7992</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>7993</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1136" s="3">
         <v>1135</v>
       </c>
       <c r="B1136" s="1" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="1137" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1136" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1137" s="3">
         <v>1136</v>
       </c>
       <c r="B1137" s="1" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1138" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1137" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>7996</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1138" s="3">
         <v>1137</v>
       </c>
       <c r="B1138" s="1" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="1139" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1138" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>7997</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1139" s="3">
         <v>1138</v>
       </c>
       <c r="B1139" s="1" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="1140" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1139" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1140" s="3">
         <v>1139</v>
       </c>
       <c r="B1140" s="1" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="1141" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1140" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1141" s="3">
         <v>1140</v>
       </c>
       <c r="B1141" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="1142" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1141" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1142" s="3">
         <v>1141</v>
       </c>
       <c r="B1142" s="1" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="1143" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1142" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1143" s="3">
         <v>1142</v>
       </c>
       <c r="B1143" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="1144" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1143" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1144" s="3">
         <v>1143</v>
       </c>
       <c r="B1144" s="1" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="1145" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1144" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1145" s="3">
         <v>1144</v>
       </c>
       <c r="B1145" s="1" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="1146" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1145" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1146" s="3">
         <v>1145</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="1147" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1146" s="2" t="s">
+        <v>8005</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1147" s="3">
         <v>1146</v>
       </c>
       <c r="B1147" s="1" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="1148" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1147" s="2" t="s">
+        <v>8007</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1148" s="3">
         <v>1147</v>
       </c>
       <c r="B1148" s="1" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="1149" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1148" s="2" t="s">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1149" s="3">
         <v>1148</v>
       </c>
       <c r="B1149" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="1150" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1149" s="2" t="s">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1150" s="3">
         <v>1149</v>
       </c>
       <c r="B1150" s="1" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="1151" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1150" s="2" t="s">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1151" s="3">
         <v>1150</v>
       </c>
       <c r="B1151" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="1152" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1151" s="2" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1152" s="3">
         <v>1151</v>
       </c>
       <c r="B1152" s="1" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="1153" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1152" s="2" t="s">
+        <v>8013</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1153" s="3">
         <v>1152</v>
       </c>
       <c r="B1153" s="1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="1154" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1153" s="2" t="s">
+        <v>8014</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1154" s="3">
         <v>1153</v>
       </c>
       <c r="B1154" s="1" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="1155" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1154" s="2" t="s">
+        <v>8016</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1155" s="3">
         <v>1154</v>
       </c>
       <c r="B1155" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="1156" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1155" s="2" t="s">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1156" s="3">
         <v>1155</v>
       </c>
       <c r="B1156" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="1157" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1156" s="2" t="s">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1157" s="3">
         <v>1156</v>
       </c>
       <c r="B1157" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="1158" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1157" s="2" t="s">
+        <v>8019</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1158" s="3">
         <v>1157</v>
       </c>
       <c r="B1158" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="1159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1158" s="2" t="s">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1159" s="3">
         <v>1158</v>
       </c>
       <c r="B1159" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="1160" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1159" s="2" t="s">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1160" s="3">
         <v>1159</v>
       </c>
       <c r="B1160" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="1161" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1160" s="2" t="s">
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1161" s="3">
         <v>1160</v>
       </c>
       <c r="B1161" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1162" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1161" s="2" t="s">
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1162" s="3">
         <v>1161</v>
       </c>
       <c r="B1162" s="1" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="1163" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1162" s="2" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1163" s="3">
         <v>1162</v>
       </c>
       <c r="B1163" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="1164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1163" s="2" t="s">
+        <v>8026</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1164" s="3">
         <v>1163</v>
       </c>
       <c r="B1164" s="1" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="1165" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1164" s="2" t="s">
+        <v>8026</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1165" s="3">
         <v>1164</v>
       </c>
       <c r="B1165" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="1166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1165" s="2" t="s">
+        <v>8026</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1166" s="3">
         <v>1165</v>
       </c>
       <c r="B1166" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="1167" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1166" s="2" t="s">
+        <v>8026</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1167" s="3">
         <v>1166</v>
       </c>
       <c r="B1167" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="1168" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1167" s="2" t="s">
+        <v>8026</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1168" s="3">
         <v>1167</v>
       </c>
       <c r="B1168" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="1169" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1168" s="2" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1169" s="3">
         <v>1168</v>
       </c>
       <c r="B1169" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="1170" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1169" s="2" t="s">
+        <v>8034</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>8035</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1170" s="3">
         <v>1169</v>
       </c>
       <c r="B1170" s="1" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="1171" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1170" s="2" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1171" s="3">
         <v>1170</v>
       </c>
       <c r="B1171" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="1172" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1171" s="2" t="s">
+        <v>8038</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1172" s="3">
         <v>1171</v>
       </c>
       <c r="B1172" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="1173" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1172" s="2" t="s">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1173" s="3">
         <v>1172</v>
       </c>
       <c r="B1173" s="1" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="1174" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1173" s="2" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>8042</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1174" s="3">
         <v>1173</v>
       </c>
       <c r="B1174" s="1" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="1175" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1174" s="2" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1175" s="3">
         <v>1174</v>
       </c>
       <c r="B1175" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="1176" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1175" s="2" t="s">
+        <v>8044</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1176" s="3">
         <v>1175</v>
       </c>
       <c r="B1176" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="1177" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1176" s="2" t="s">
+        <v>8046</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1177" s="3">
         <v>1176</v>
       </c>
       <c r="B1177" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="1178" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1177" s="2" t="s">
+        <v>8048</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1178" s="3">
         <v>1177</v>
       </c>
       <c r="B1178" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="1179" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1178" s="2" t="s">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1179" s="3">
         <v>1178</v>
       </c>
       <c r="B1179" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="1180" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1179" s="2" t="s">
+        <v>8051</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1180" s="3">
         <v>1179</v>
       </c>
       <c r="B1180" s="1" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="1181" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1180" s="2" t="s">
+        <v>8053</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1181" s="3">
         <v>1180</v>
       </c>
       <c r="B1181" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="1182" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1181" s="2" t="s">
+        <v>8054</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1182" s="3">
         <v>1181</v>
       </c>
       <c r="B1182" s="1" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="1183" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1182" s="2" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1183" s="3">
         <v>1182</v>
       </c>
       <c r="B1183" s="1" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="1184" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1183" s="2" t="s">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1184" s="3">
         <v>1183</v>
       </c>
       <c r="B1184" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="1185" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1184" s="2" t="s">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1185" s="3">
         <v>1184</v>
       </c>
       <c r="B1185" s="1" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="1186" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1185" s="2" t="s">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1186" s="3">
         <v>1185</v>
       </c>
       <c r="B1186" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="1187" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1186" s="2" t="s">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1187" s="3">
         <v>1186</v>
       </c>
       <c r="B1187" s="1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="1188" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1187" s="2" t="s">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1188" s="3">
         <v>1187</v>
       </c>
       <c r="B1188" s="1" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="1189" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1188" s="2" t="s">
+        <v>8061</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1189" s="3">
         <v>1188</v>
       </c>
       <c r="B1189" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="1190" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1189" s="2" t="s">
+        <v>8062</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1190" s="3">
         <v>1189</v>
       </c>
       <c r="B1190" s="1" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1191" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1190" s="2" t="s">
+        <v>8063</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1191" s="3">
         <v>1190</v>
       </c>
       <c r="B1191" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1192" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1191" s="2" t="s">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1192" s="3">
         <v>1191</v>
       </c>
       <c r="B1192" s="1" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="1193" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1192" s="2" t="s">
+        <v>8066</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1193" s="3">
         <v>1192</v>
       </c>
       <c r="B1193" s="1" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="1194" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1193" s="2" t="s">
+        <v>8067</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1194" s="3">
         <v>1193</v>
       </c>
       <c r="B1194" s="1" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="1195" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1194" s="2" t="s">
+        <v>8068</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1195" s="3">
         <v>1194</v>
       </c>
       <c r="B1195" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="1196" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1195" s="2" t="s">
+        <v>8069</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1196" s="3">
         <v>1195</v>
       </c>
       <c r="B1196" s="1" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="1197" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1196" s="2" t="s">
+        <v>8071</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1197" s="3">
         <v>1196</v>
       </c>
       <c r="B1197" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="1198" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1197" s="2" t="s">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1198" s="3">
         <v>1197</v>
       </c>
       <c r="B1198" s="1" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="1199" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1198" s="2" t="s">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1199" s="3">
         <v>1198</v>
       </c>
       <c r="B1199" s="1" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="1200" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1199" s="2" t="s">
+        <v>8074</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1200" s="3">
         <v>1199</v>
       </c>
       <c r="B1200" s="1" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="1201" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1200" s="2" t="s">
+        <v>8076</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1201" s="3">
         <v>1200</v>
       </c>
       <c r="B1201" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="1202" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1201" s="2" t="s">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1202" s="3">
         <v>1201</v>
       </c>
       <c r="B1202" s="1" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="1203" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1202" s="2" t="s">
+        <v>8078</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>7212</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1203" s="3">
         <v>1202</v>
       </c>
       <c r="B1203" s="1" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="1204" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1203" s="2" t="s">
+        <v>8079</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1204" s="3">
         <v>1203</v>
       </c>
       <c r="B1204" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="1205" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1204" s="2" t="s">
+        <v>8080</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1205" s="3">
         <v>1204</v>
       </c>
       <c r="B1205" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="1206" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1205" s="2" t="s">
+        <v>8082</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1206" s="3">
         <v>1205</v>
       </c>
       <c r="B1206" s="1" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="1207" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1206" s="2" t="s">
+        <v>8084</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1207" s="3">
         <v>1206</v>
       </c>
       <c r="B1207" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="1208" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1207" s="2" t="s">
+        <v>8086</v>
+      </c>
+      <c r="D1207" s="2" t="s">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1208" s="3">
         <v>1207</v>
       </c>
       <c r="B1208" s="1" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="1209" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1208" s="2" t="s">
+        <v>8088</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1209" s="3">
         <v>1208</v>
       </c>
       <c r="B1209" s="1" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="1210" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1209" s="2" t="s">
+        <v>8088</v>
+      </c>
+      <c r="D1209" s="2" t="s">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1210" s="3">
         <v>1209</v>
       </c>
       <c r="B1210" s="1" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="1211" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1210" s="2" t="s">
+        <v>8088</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1211" s="3">
         <v>1210</v>
       </c>
       <c r="B1211" s="1" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="1212" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1211" s="2" t="s">
+        <v>8092</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1212" s="3">
         <v>1211</v>
       </c>
       <c r="B1212" s="1" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="1213" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1212" s="2" t="s">
+        <v>8093</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1213" s="3">
         <v>1212</v>
       </c>
       <c r="B1213" s="1" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="1214" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1213" s="2" t="s">
+        <v>8096</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1214" s="3">
         <v>1213</v>
       </c>
       <c r="B1214" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="1215" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1214" s="2" t="s">
+        <v>8096</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1215" s="3">
         <v>1214</v>
       </c>
       <c r="B1215" s="1" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="1216" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1215" s="2" t="s">
+        <v>8099</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1216" s="3">
         <v>1215</v>
       </c>
       <c r="B1216" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="1217" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1216" s="2" t="s">
+        <v>8099</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1217" s="3">
         <v>1216</v>
       </c>
       <c r="B1217" s="1" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="1218" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1217" s="2" t="s">
+        <v>8102</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>8103</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1218" s="3">
         <v>1217</v>
       </c>
       <c r="B1218" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="1219" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1218" s="2" t="s">
+        <v>8104</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1219" s="3">
         <v>1218</v>
       </c>
       <c r="B1219" s="1" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="1220" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1219" s="2" t="s">
+        <v>8106</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>8107</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1220" s="3">
         <v>1219</v>
       </c>
       <c r="B1220" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="1221" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1220" s="2" t="s">
+        <v>8108</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>8109</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1221" s="3">
         <v>1220</v>
       </c>
       <c r="B1221" s="1" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="1222" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1221" s="2" t="s">
+        <v>8110</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1222" s="3">
         <v>1221</v>
       </c>
       <c r="B1222" s="1" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="1223" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1222" s="2" t="s">
+        <v>8110</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>8112</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1223" s="3">
         <v>1222</v>
       </c>
       <c r="B1223" s="1" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="1224" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1223" s="2" t="s">
+        <v>8113</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1224" s="3">
         <v>1223</v>
       </c>
       <c r="B1224" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="1225" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1224" s="2" t="s">
+        <v>8113</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>8115</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1225" s="3">
         <v>1224</v>
       </c>
       <c r="B1225" s="1" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="1226" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1225" s="2" t="s">
+        <v>8116</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>8117</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1226" s="3">
         <v>1225</v>
       </c>
       <c r="B1226" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="1227" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1226" s="2" t="s">
+        <v>8118</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1227" s="3">
         <v>1226</v>
       </c>
       <c r="B1227" s="1" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="1228" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1227" s="2" t="s">
+        <v>8120</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>8121</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1228" s="3">
         <v>1227</v>
       </c>
       <c r="B1228" s="1" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="1229" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1228" s="2" t="s">
+        <v>8122</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1229" s="3">
         <v>1228</v>
       </c>
       <c r="B1229" s="1" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="1230" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1229" s="2" t="s">
+        <v>8124</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1230" s="3">
         <v>1229</v>
       </c>
       <c r="B1230" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="1231" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1230" s="2" t="s">
+        <v>8124</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>8126</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1231" s="3">
         <v>1230</v>
       </c>
       <c r="B1231" s="1" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="1232" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1231" s="2" t="s">
+        <v>8127</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1232" s="3">
         <v>1231</v>
       </c>
       <c r="B1232" s="1" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="1233" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1232" s="2" t="s">
+        <v>8129</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1233" s="3">
         <v>1232</v>
       </c>
       <c r="B1233" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="1234" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1233" s="2" t="s">
+        <v>8129</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1234" s="3">
         <v>1233</v>
       </c>
       <c r="B1234" s="1" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1235" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1234" s="2" t="s">
+        <v>8132</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1235" s="3">
         <v>1234</v>
       </c>
       <c r="B1235" s="1" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="1236" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1235" s="2" t="s">
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1236" s="3">
         <v>1235</v>
       </c>
       <c r="B1236" s="1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1237" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1236" s="2" t="s">
+        <v>8135</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1237" s="3">
         <v>1236</v>
       </c>
       <c r="B1237" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="1238" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1237" s="2" t="s">
+        <v>8135</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>8137</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1238" s="3">
         <v>1237</v>
       </c>
       <c r="B1238" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="1239" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1238" s="2" t="s">
+        <v>8138</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1239" s="3">
         <v>1238</v>
       </c>
       <c r="B1239" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="1240" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1239" s="2" t="s">
+        <v>8140</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1240" s="3">
         <v>1239</v>
       </c>
       <c r="B1240" s="1" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="1241" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1240" s="2" t="s">
+        <v>8140</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1241" s="3">
         <v>1240</v>
       </c>
       <c r="B1241" s="1" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="1242" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1241" s="2" t="s">
+        <v>8140</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>8143</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1242" s="3">
         <v>1241</v>
       </c>
       <c r="B1242" s="1" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="1243" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1242" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1243" s="3">
         <v>1242</v>
       </c>
       <c r="B1243" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="1244" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1243" s="2" t="s">
+        <v>8145</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1244" s="3">
         <v>1243</v>
       </c>
       <c r="B1244" s="1" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="1245" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1244" s="2" t="s">
+        <v>8145</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1245" s="3">
         <v>1244</v>
       </c>
       <c r="B1245" s="1" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="1246" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1245" s="2" t="s">
+        <v>8148</v>
+      </c>
+      <c r="D1245" s="2" t="s">
+        <v>8149</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1246" s="3">
         <v>1245</v>
       </c>
       <c r="B1246" s="1" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="1247" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1246" s="2" t="s">
+        <v>8150</v>
+      </c>
+      <c r="D1246" s="2" t="s">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1247" s="3">
         <v>1246</v>
       </c>
       <c r="B1247" s="1" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="1248" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1247" s="2" t="s">
+        <v>8150</v>
+      </c>
+      <c r="D1247" s="2" t="s">
+        <v>8152</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1248" s="3">
         <v>1247</v>
       </c>
       <c r="B1248" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="1249" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1248" s="2" t="s">
+        <v>8150</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1249" s="3">
         <v>1248</v>
       </c>
       <c r="B1249" s="1" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="1250" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1249" s="2" t="s">
+        <v>8150</v>
+      </c>
+      <c r="D1249" s="2" t="s">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1250" s="3">
         <v>1249</v>
       </c>
       <c r="B1250" s="1" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="1251" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1250" s="2" t="s">
+        <v>8155</v>
+      </c>
+      <c r="D1250" s="2" t="s">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1251" s="3">
         <v>1250</v>
       </c>
       <c r="B1251" s="1" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="1252" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1251" s="2" t="s">
+        <v>8157</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1252" s="3">
         <v>1251</v>
       </c>
       <c r="B1252" s="1" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="1253" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1252" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1252" s="2" t="s">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1253" s="3">
         <v>1252</v>
       </c>
       <c r="B1253" s="1" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="1254" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1253" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1254" s="3">
         <v>1253</v>
       </c>
       <c r="B1254" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="1255" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1254" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1254" s="2" t="s">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1255" s="3">
         <v>1254</v>
       </c>
       <c r="B1255" s="1" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="1256" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1255" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1256" s="3">
         <v>1255</v>
       </c>
       <c r="B1256" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="1257" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1256" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1256" s="2" t="s">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1257" s="3">
         <v>1256</v>
       </c>
       <c r="B1257" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="1258" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1257" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1257" s="2" t="s">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1258" s="3">
         <v>1257</v>
       </c>
       <c r="B1258" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="1259" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1258" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="D1258" s="2" t="s">
+        <v>8166</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1259" s="3">
         <v>1258</v>
       </c>
       <c r="B1259" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="1260" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1259" s="2" t="s">
+        <v>8167</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1260" s="3">
         <v>1259</v>
       </c>
       <c r="B1260" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="1261" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1260" s="2" t="s">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1261" s="3">
         <v>1260</v>
       </c>
       <c r="B1261" s="1" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="1262" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1261" s="2" t="s">
+        <v>8169</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1262" s="3">
         <v>1261</v>
       </c>
       <c r="B1262" s="1" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="1263" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1262" s="2" t="s">
+        <v>8170</v>
+      </c>
+      <c r="D1262" s="2" t="s">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1263" s="3">
         <v>1262</v>
       </c>
       <c r="B1263" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="1264" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1263" s="2" t="s">
+        <v>8170</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1264" s="3">
         <v>1263</v>
       </c>
       <c r="B1264" s="1" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="1265" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1264" s="2" t="s">
+        <v>8170</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1265" s="3">
         <v>1264</v>
       </c>
       <c r="B1265" s="1" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="1266" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1265" s="2" t="s">
+        <v>8174</v>
+      </c>
+      <c r="D1265" s="2" t="s">
+        <v>8175</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1266" s="3">
         <v>1265</v>
       </c>
       <c r="B1266" s="1" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="1267" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1266" s="2" t="s">
+        <v>8176</v>
+      </c>
+      <c r="D1266" s="2" t="s">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1267" s="3">
         <v>1266</v>
       </c>
       <c r="B1267" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="1268" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1267" s="2" t="s">
+        <v>8177</v>
+      </c>
+      <c r="D1267" s="2" t="s">
+        <v>8178</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1268" s="3">
         <v>1267</v>
       </c>
       <c r="B1268" s="1" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="1269" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1268" s="2" t="s">
+        <v>8177</v>
+      </c>
+      <c r="D1268" s="2" t="s">
+        <v>8179</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1269" s="3">
         <v>1268</v>
       </c>
       <c r="B1269" s="1" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="1270" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1269" s="2" t="s">
+        <v>8180</v>
+      </c>
+      <c r="D1269" s="2" t="s">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1270" s="3">
         <v>1269</v>
       </c>
       <c r="B1270" s="1" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1271" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1270" s="2" t="s">
+        <v>8182</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1271" s="3">
         <v>1270</v>
       </c>
       <c r="B1271" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="1272" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1271" s="2" t="s">
+        <v>8183</v>
+      </c>
+      <c r="D1271" s="2" t="s">
+        <v>8184</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1272" s="3">
         <v>1271</v>
       </c>
       <c r="B1272" s="1" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="1273" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1272" s="2" t="s">
+        <v>8185</v>
+      </c>
+      <c r="D1272" s="2" t="s">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1273" s="3">
         <v>1272</v>
       </c>
       <c r="B1273" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="1274" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1273" s="2" t="s">
+        <v>8185</v>
+      </c>
+      <c r="D1273" s="2" t="s">
+        <v>8186</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1274" s="3">
         <v>1273</v>
       </c>
       <c r="B1274" s="1" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="1275" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1274" s="2" t="s">
+        <v>8188</v>
+      </c>
+      <c r="D1274" s="2" t="s">
+        <v>8189</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1275" s="3">
         <v>1274</v>
       </c>
       <c r="B1275" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="1276" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1275" s="2" t="s">
+        <v>8190</v>
+      </c>
+      <c r="D1275" s="2" t="s">
+        <v>8191</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1276" s="3">
         <v>1275</v>
       </c>
       <c r="B1276" s="1" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="1277" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1276" s="2" t="s">
+        <v>8190</v>
+      </c>
+      <c r="D1276" s="2" t="s">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1277" s="3">
         <v>1276</v>
       </c>
       <c r="B1277" s="1" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="1278" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1277" s="2" t="s">
+        <v>8193</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1278" s="3">
         <v>1277</v>
       </c>
       <c r="B1278" s="1" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="1279" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1278" s="2" t="s">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1279" s="3">
         <v>1278</v>
       </c>
       <c r="B1279" s="1" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="1280" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1279" s="2" t="s">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1280" s="3">
         <v>1279</v>
       </c>
       <c r="B1280" s="1" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="1281" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1280" s="2" t="s">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1281" s="3">
         <v>1280</v>
       </c>
       <c r="B1281" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="1282" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1281" s="2" t="s">
+        <v>6921</v>
+      </c>
+      <c r="D1281" s="2" t="s">
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1282" s="3">
         <v>1281</v>
       </c>
       <c r="B1282" s="1" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="1283" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1282" s="2" t="s">
+        <v>8198</v>
+      </c>
+      <c r="D1282" s="2" t="s">
+        <v>8199</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1283" s="3">
         <v>1282</v>
       </c>
       <c r="B1283" s="1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="1284" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1283" s="2" t="s">
+        <v>8200</v>
+      </c>
+      <c r="D1283" s="2" t="s">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1284" s="3">
         <v>1283</v>
       </c>
       <c r="B1284" s="1" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="1285" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1284" s="2" t="s">
+        <v>8202</v>
+      </c>
+      <c r="D1284" s="2" t="s">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1285" s="3">
         <v>1284</v>
       </c>
       <c r="B1285" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="1286" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1285" s="2" t="s">
+        <v>8202</v>
+      </c>
+      <c r="D1285" s="2" t="s">
+        <v>8204</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1286" s="3">
         <v>1285</v>
       </c>
       <c r="B1286" s="1" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="1287" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1286" s="2" t="s">
+        <v>8202</v>
+      </c>
+      <c r="D1286" s="2" t="s">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1287" s="3">
         <v>1286</v>
       </c>
       <c r="B1287" s="1" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="1288" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1287" s="2" t="s">
+        <v>8206</v>
+      </c>
+      <c r="D1287" s="2" t="s">
+        <v>8207</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1288" s="3">
         <v>1287</v>
       </c>
       <c r="B1288" s="1" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="1289" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1288" s="2" t="s">
+        <v>8206</v>
+      </c>
+      <c r="D1288" s="2" t="s">
+        <v>8208</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1289" s="3">
         <v>1288</v>
       </c>
       <c r="B1289" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="1290" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1289" s="2" t="s">
+        <v>8206</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1290" s="3">
         <v>1289</v>
       </c>
       <c r="B1290" s="1" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="1291" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1290" s="2" t="s">
+        <v>8206</v>
+      </c>
+      <c r="D1290" s="2" t="s">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1291" s="3">
         <v>1290</v>
       </c>
       <c r="B1291" s="1" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="1292" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1291" s="2" t="s">
+        <v>8211</v>
+      </c>
+      <c r="D1291" s="2" t="s">
+        <v>8212</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1292" s="3">
         <v>1291</v>
       </c>
       <c r="B1292" s="1" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="1293" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1292" s="2" t="s">
+        <v>8213</v>
+      </c>
+      <c r="D1292" s="2" t="s">
+        <v>8214</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1293" s="3">
         <v>1292</v>
       </c>
       <c r="B1293" s="1" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="1294" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1293" s="2" t="s">
+        <v>8215</v>
+      </c>
+      <c r="D1293" s="2" t="s">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1294" s="3">
         <v>1293</v>
       </c>
       <c r="B1294" s="1" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="1295" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1294" s="2" t="s">
+        <v>8215</v>
+      </c>
+      <c r="D1294" s="2" t="s">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1295" s="3">
         <v>1294</v>
       </c>
       <c r="B1295" s="1" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="1296" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1295" s="2" t="s">
+        <v>8218</v>
+      </c>
+      <c r="D1295" s="2" t="s">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1296" s="3">
         <v>1295</v>
       </c>
       <c r="B1296" s="1" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="1297" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1296" s="2" t="s">
+        <v>8220</v>
+      </c>
+      <c r="D1296" s="2" t="s">
+        <v>8221</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1297" s="3">
         <v>1296</v>
       </c>
       <c r="B1297" s="1" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="1298" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1297" s="2" t="s">
+        <v>8220</v>
+      </c>
+      <c r="D1297" s="2" t="s">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1298" s="3">
         <v>1297</v>
       </c>
       <c r="B1298" s="1" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="1299" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1298" s="2" t="s">
+        <v>8220</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>8223</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1299" s="3">
         <v>1298</v>
       </c>
       <c r="B1299" s="1" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="1300" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1299" s="2" t="s">
+        <v>8224</v>
+      </c>
+      <c r="D1299" s="2" t="s">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1300" s="3">
         <v>1299</v>
       </c>
       <c r="B1300" s="1" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="1301" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1300" s="2" t="s">
+        <v>8224</v>
+      </c>
+      <c r="D1300" s="2" t="s">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1301" s="3">
         <v>1300</v>
       </c>
       <c r="B1301" s="1" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="1302" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1301" s="2" t="s">
+        <v>8227</v>
+      </c>
+      <c r="D1301" s="2" t="s">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1302" s="3">
         <v>1301</v>
       </c>
       <c r="B1302" s="1" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="1303" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1302" s="2" t="s">
+        <v>8227</v>
+      </c>
+      <c r="D1302" s="2" t="s">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1303" s="3">
         <v>1302</v>
       </c>
       <c r="B1303" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="1304" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1303" s="2" t="s">
+        <v>8227</v>
+      </c>
+      <c r="D1303" s="2" t="s">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1304" s="3">
         <v>1303</v>
       </c>
       <c r="B1304" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="1305" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1304" s="2" t="s">
+        <v>8227</v>
+      </c>
+      <c r="D1304" s="2" t="s">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1305" s="3">
         <v>1304</v>
       </c>
       <c r="B1305" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="1306" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1305" s="2" t="s">
+        <v>8227</v>
+      </c>
+      <c r="D1305" s="2" t="s">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1306" s="3">
         <v>1305</v>
       </c>
       <c r="B1306" s="1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="1307" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1306" s="2" t="s">
+        <v>8233</v>
+      </c>
+      <c r="D1306" s="2" t="s">
+        <v>8234</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1307" s="3">
         <v>1306</v>
       </c>
       <c r="B1307" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="1308" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1307" s="2" t="s">
+        <v>8233</v>
+      </c>
+      <c r="D1307" s="2" t="s">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1308" s="3">
         <v>1307</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="1309" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1308" s="2" t="s">
+        <v>8236</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1309" s="3">
         <v>1308</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="1310" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1309" s="2" t="s">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1310" s="3">
         <v>1309</v>
       </c>
       <c r="B1310" s="1" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="1311" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1310" s="2" t="s">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1311" s="3">
         <v>1310</v>
       </c>
       <c r="B1311" s="1" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="1312" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1311" s="2" t="s">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1312" s="3">
         <v>1311</v>
       </c>
       <c r="B1312" s="1" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="1313" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1312" s="2" t="s">
+        <v>8240</v>
+      </c>
+      <c r="D1312" s="2" t="s">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1313" s="3">
         <v>1312</v>
       </c>
       <c r="B1313" s="1" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="1314" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1313" s="2" t="s">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1314" s="3">
         <v>1313</v>
       </c>
       <c r="B1314" s="1" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="1315" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1314" s="2" t="s">
+        <v>8243</v>
+      </c>
+      <c r="D1314" s="2" t="s">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1315" s="3">
         <v>1314</v>
       </c>
       <c r="B1315" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="1316" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1315" s="2" t="s">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1316" s="3">
         <v>1315</v>
       </c>
       <c r="B1316" s="1" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="1317" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1316" s="2" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1317" s="3">
         <v>1316</v>
       </c>
       <c r="B1317" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="1318" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1317" s="2" t="s">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1318" s="3">
         <v>1317</v>
       </c>
       <c r="B1318" s="1" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="1319" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1318" s="2" t="s">
+        <v>8248</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1319" s="3">
         <v>1318</v>
       </c>
       <c r="B1319" s="1" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="1320" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1319" s="2" t="s">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1320" s="3">
         <v>1319</v>
       </c>
       <c r="B1320" s="1" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="1321" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1320" s="2" t="s">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1321" s="3">
         <v>1320</v>
       </c>
       <c r="B1321" s="1" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="1322" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1321" s="2" t="s">
+        <v>8251</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1322" s="3">
         <v>1321</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="1323" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1322" s="2" t="s">
+        <v>8252</v>
+      </c>
+      <c r="D1322" s="2" t="s">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1323" s="3">
         <v>1322</v>
       </c>
       <c r="B1323" s="1" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="1324" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1323" s="2" t="s">
+        <v>8252</v>
+      </c>
+      <c r="D1323" s="2" t="s">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1324" s="3">
         <v>1323</v>
       </c>
       <c r="B1324" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="1325" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1324" s="2" t="s">
+        <v>8252</v>
+      </c>
+      <c r="D1324" s="2" t="s">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1325" s="3">
         <v>1324</v>
       </c>
       <c r="B1325" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="1326" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1325" s="2" t="s">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1326" s="3">
         <v>1325</v>
       </c>
       <c r="B1326" s="1" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1327" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1326" s="2" t="s">
+        <v>8257</v>
+      </c>
+      <c r="D1326" s="2" t="s">
+        <v>8258</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1327" s="3">
         <v>1326</v>
       </c>
       <c r="B1327" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="1328" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1327" s="2" t="s">
+        <v>8259</v>
+      </c>
+      <c r="D1327" s="2" t="s">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1328" s="3">
         <v>1327</v>
       </c>
       <c r="B1328" s="1" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="1329" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1328" s="2" t="s">
+        <v>8261</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1329" s="3">
         <v>1328</v>
       </c>
       <c r="B1329" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="1330" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1329" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1329" s="2" t="s">
+        <v>8263</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1330" s="3">
         <v>1329</v>
       </c>
       <c r="B1330" s="1" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="1331" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1330" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1330" s="2" t="s">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1331" s="3">
         <v>1330</v>
       </c>
       <c r="B1331" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="1332" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1331" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1331" s="2" t="s">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1332" s="3">
         <v>1331</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="1333" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1332" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1332" s="2" t="s">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1333" s="3">
         <v>1332</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="1334" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1333" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1333" s="2" t="s">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1334" s="3">
         <v>1333</v>
       </c>
       <c r="B1334" s="1" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="1335" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1334" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1334" s="2" t="s">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1335" s="3">
         <v>1334</v>
       </c>
       <c r="B1335" s="1" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="1336" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1335" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1335" s="2" t="s">
+        <v>8269</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1336" s="3">
         <v>1335</v>
       </c>
       <c r="B1336" s="1" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="1337" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1336" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1336" s="2" t="s">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1337" s="3">
         <v>1336</v>
       </c>
       <c r="B1337" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="1338" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1337" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1337" s="2" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1338" s="3">
         <v>1337</v>
       </c>
       <c r="B1338" s="1" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="1339" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1338" s="4" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1338" s="2" t="s">
+        <v>8272</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1339" s="3">
         <v>1338</v>
       </c>
       <c r="B1339" s="1" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="1340" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1339" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1339" s="2" t="s">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1340" s="3">
         <v>1339</v>
       </c>
       <c r="B1340" s="1" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="1341" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1340" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1340" s="2" t="s">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1341" s="3">
         <v>1340</v>
       </c>
       <c r="B1341" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="1342" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1341" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1341" s="2" t="s">
+        <v>8276</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1342" s="3">
         <v>1341</v>
       </c>
       <c r="B1342" s="1" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="1343" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1342" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1342" s="2" t="s">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1343" s="3">
         <v>1342</v>
       </c>
       <c r="B1343" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="1344" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1343" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1343" s="2" t="s">
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1344" s="3">
         <v>1343</v>
       </c>
       <c r="B1344" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="1345" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1344" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1344" s="2" t="s">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1345" s="3">
         <v>1344</v>
       </c>
       <c r="B1345" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="1346" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1345" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D1345" s="2" t="s">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1346" s="3">
         <v>1345</v>
       </c>
       <c r="B1346" s="1" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="1347" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1346" s="2" t="s">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1347" s="3">
         <v>1346</v>
       </c>
       <c r="B1347" s="1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="1348" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1347" s="2" t="s">
+        <v>8282</v>
+      </c>
+      <c r="D1347" s="2" t="s">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1348" s="3">
         <v>1347</v>
       </c>
       <c r="B1348" s="1" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="1349" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1348" s="2" t="s">
+        <v>8282</v>
+      </c>
+      <c r="D1348" s="2" t="s">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1349" s="3">
         <v>1348</v>
       </c>
       <c r="B1349" s="1" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="1350" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1349" s="2" t="s">
+        <v>8283</v>
+      </c>
+      <c r="D1349" s="2" t="s">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1350" s="3">
         <v>1349</v>
       </c>
       <c r="B1350" s="1" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="1351" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1350" s="2" t="s">
+        <v>8283</v>
+      </c>
+      <c r="D1350" s="2" t="s">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1351" s="3">
         <v>1350</v>
       </c>
       <c r="B1351" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="1352" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1351" s="2" t="s">
+        <v>8283</v>
+      </c>
+      <c r="D1351" s="2" t="s">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1352" s="3">
         <v>1351</v>
       </c>
       <c r="B1352" s="1" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="1353" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1352" s="2" t="s">
+        <v>8289</v>
+      </c>
+      <c r="D1352" s="2" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1353" s="3">
         <v>1352</v>
       </c>
       <c r="B1353" s="1" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="1354" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1353" s="2" t="s">
+        <v>8291</v>
+      </c>
+      <c r="D1353" s="2" t="s">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1354" s="3">
         <v>1353</v>
       </c>
       <c r="B1354" s="1" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="1355" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1354" s="2" t="s">
+        <v>8291</v>
+      </c>
+      <c r="D1354" s="2" t="s">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1355" s="3">
         <v>1354</v>
       </c>
       <c r="B1355" s="1" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="1356" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1355" s="2" t="s">
+        <v>8291</v>
+      </c>
+      <c r="D1355" s="2" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1356" s="3">
         <v>1355</v>
       </c>
       <c r="B1356" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="1357" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1356" s="2" t="s">
+        <v>8291</v>
+      </c>
+      <c r="D1356" s="2" t="s">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1357" s="3">
         <v>1356</v>
       </c>
       <c r="B1357" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="1358" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1357" s="2" t="s">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1358" s="3">
         <v>1357</v>
       </c>
       <c r="B1358" s="1" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="1359" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1358" s="2" t="s">
+        <v>8297</v>
+      </c>
+      <c r="D1358" s="2" t="s">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1359" s="3">
         <v>1358</v>
       </c>
       <c r="B1359" s="1" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="1360" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1359" s="2" t="s">
+        <v>8299</v>
+      </c>
+      <c r="D1359" s="2" t="s">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1360" s="3">
         <v>1359</v>
       </c>
       <c r="B1360" s="1" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="1361" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1360" s="2" t="s">
+        <v>8301</v>
+      </c>
+      <c r="D1360" s="2" t="s">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1361" s="3">
         <v>1360</v>
       </c>
       <c r="B1361" s="1" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="1362" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1361" s="2" t="s">
+        <v>8303</v>
+      </c>
+      <c r="D1361" s="2" t="s">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1362" s="3">
         <v>1361</v>
       </c>
       <c r="B1362" s="1" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="1363" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1362" s="2" t="s">
+        <v>8305</v>
+      </c>
+      <c r="D1362" s="2" t="s">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1363" s="3">
         <v>1362</v>
       </c>
       <c r="B1363" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="1364" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1363" s="2" t="s">
+        <v>8307</v>
+      </c>
+      <c r="D1363" s="2" t="s">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1364" s="3">
         <v>1363</v>
       </c>
       <c r="B1364" s="1" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="1365" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1364" s="2" t="s">
+        <v>8309</v>
+      </c>
+      <c r="D1364" s="2" t="s">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1365" s="3">
         <v>1364</v>
       </c>
       <c r="B1365" s="1" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="1366" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1365" s="2" t="s">
+        <v>8311</v>
+      </c>
+      <c r="D1365" s="2" t="s">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1366" s="3">
         <v>1365</v>
       </c>
       <c r="B1366" s="1" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="1367" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1366" s="2" t="s">
+        <v>8311</v>
+      </c>
+      <c r="D1366" s="2" t="s">
+        <v>8313</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1367" s="3">
         <v>1366</v>
       </c>
       <c r="B1367" s="1" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="1368" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1367" s="2" t="s">
+        <v>8311</v>
+      </c>
+      <c r="D1367" s="2" t="s">
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1368" s="3">
         <v>1367</v>
       </c>
       <c r="B1368" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="1369" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1368" s="2" t="s">
+        <v>8315</v>
+      </c>
+      <c r="D1368" s="2" t="s">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1369" s="3">
         <v>1368</v>
       </c>
       <c r="B1369" s="1" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="1370" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1369" s="2" t="s">
+        <v>8317</v>
+      </c>
+      <c r="D1369" s="2" t="s">
+        <v>8318</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1370" s="3">
         <v>1369</v>
       </c>
       <c r="B1370" s="1" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="1371" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1370" s="2" t="s">
+        <v>8319</v>
+      </c>
+      <c r="D1370" s="2" t="s">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1371" s="3">
         <v>1370</v>
       </c>
       <c r="B1371" s="1" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="1372" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1371" s="2" t="s">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1372" s="3">
         <v>1371</v>
       </c>
       <c r="B1372" s="1" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="1373" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1372" s="2" t="s">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1373" s="3">
         <v>1372</v>
       </c>
       <c r="B1373" s="1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="1374" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1373" s="2" t="s">
+        <v>8323</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1374" s="3">
         <v>1373</v>
       </c>
       <c r="B1374" s="1" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="1375" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1374" s="2" t="s">
+        <v>8324</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1375" s="3">
         <v>1374</v>
       </c>
       <c r="B1375" s="1" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="1376" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1375" s="2" t="s">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1376" s="3">
         <v>1375</v>
       </c>
       <c r="B1376" s="1" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="1377" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1376" s="2" t="s">
+        <v>8326</v>
+      </c>
+      <c r="D1376" s="2" t="s">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1377" s="3">
         <v>1376</v>
       </c>
       <c r="B1377" s="1" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="1378" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1377" s="2" t="s">
+        <v>8326</v>
+      </c>
+      <c r="D1377" s="2" t="s">
+        <v>8328</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1378" s="3">
         <v>1377</v>
       </c>
       <c r="B1378" s="1" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="1379" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1378" s="2" t="s">
+        <v>8329</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1379" s="3">
         <v>1378</v>
       </c>
       <c r="B1379" s="1" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="1380" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1379" s="2" t="s">
+        <v>8330</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1380" s="3">
         <v>1379</v>
       </c>
       <c r="B1380" s="1" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="1381" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1380" s="2" t="s">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1381" s="3">
         <v>1380</v>
       </c>
       <c r="B1381" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="1382" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1381" s="2" t="s">
+        <v>8332</v>
+      </c>
+      <c r="D1381" s="2" t="s">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1382" s="3">
         <v>1381</v>
       </c>
       <c r="B1382" s="1" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="1383" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1382" s="2" t="s">
+        <v>8334</v>
+      </c>
+      <c r="D1382" s="2" t="s">
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1383" s="3">
         <v>1382</v>
       </c>
       <c r="B1383" s="1" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="1384" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1383" s="2" t="s">
+        <v>8336</v>
+      </c>
+      <c r="D1383" s="2" t="s">
+        <v>8337</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1384" s="3">
         <v>1383</v>
       </c>
       <c r="B1384" s="1" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="1385" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1384" s="2" t="s">
+        <v>8338</v>
+      </c>
+      <c r="D1384" s="2" t="s">
+        <v>8339</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1385" s="3">
         <v>1384</v>
       </c>
       <c r="B1385" s="1" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="1386" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1385" s="2" t="s">
+        <v>8338</v>
+      </c>
+      <c r="D1385" s="2" t="s">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1386" s="3">
         <v>1385</v>
       </c>
       <c r="B1386" s="1" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="1387" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1386" s="2" t="s">
+        <v>8341</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1387" s="3">
         <v>1386</v>
       </c>
       <c r="B1387" s="1" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="1388" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1387" s="2" t="s">
+        <v>8342</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1388" s="3">
         <v>1387</v>
       </c>
       <c r="B1388" s="1" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="1389" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1388" s="2" t="s">
+        <v>8343</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1389" s="3">
         <v>1388</v>
       </c>
       <c r="B1389" s="1" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="1390" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1389" s="2" t="s">
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1390" s="3">
         <v>1389</v>
       </c>
       <c r="B1390" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="1391" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1390" s="2" t="s">
+        <v>8345</v>
+      </c>
+      <c r="D1390" s="2" t="s">
+        <v>8346</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1391" s="3">
         <v>1390</v>
       </c>
       <c r="B1391" s="1" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="1392" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1391" s="2" t="s">
+        <v>8345</v>
+      </c>
+      <c r="D1391" s="2" t="s">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1392" s="3">
         <v>1391</v>
       </c>
       <c r="B1392" s="1" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="1393" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1392" s="2" t="s">
+        <v>8348</v>
+      </c>
+      <c r="D1392" s="2" t="s">
+        <v>8349</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1393" s="3">
         <v>1392</v>
       </c>
       <c r="B1393" s="1" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="1394" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1393" s="2" t="s">
+        <v>8350</v>
+      </c>
+      <c r="D1393" s="2" t="s">
+        <v>8351</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1394" s="3">
         <v>1393</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="1395" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1394" s="2" t="s">
+        <v>8352</v>
+      </c>
+      <c r="D1394" s="2" t="s">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1395" s="3">
         <v>1394</v>
       </c>
       <c r="B1395" s="1" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="1396" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1395" s="2" t="s">
+        <v>8352</v>
+      </c>
+      <c r="D1395" s="2" t="s">
+        <v>8354</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1396" s="3">
         <v>1395</v>
       </c>
       <c r="B1396" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="1397" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1396" s="2" t="s">
+        <v>8355</v>
+      </c>
+      <c r="D1396" s="2" t="s">
+        <v>8356</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1397" s="3">
         <v>1396</v>
       </c>
       <c r="B1397" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="1398" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1397" s="2" t="s">
+        <v>8357</v>
+      </c>
+      <c r="D1397" s="2" t="s">
+        <v>8358</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1398" s="3">
         <v>1397</v>
       </c>
       <c r="B1398" s="1" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="1399" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1398" s="2" t="s">
+        <v>8359</v>
+      </c>
+      <c r="D1398" s="2" t="s">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1399" s="3">
         <v>1398</v>
       </c>
       <c r="B1399" s="1" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="1400" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1399" s="2" t="s">
+        <v>8359</v>
+      </c>
+      <c r="D1399" s="2" t="s">
+        <v>8361</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1400" s="3">
         <v>1399</v>
       </c>
       <c r="B1400" s="1" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="1401" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1400" s="2" t="s">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1401" s="3">
         <v>1400</v>
       </c>
       <c r="B1401" s="1" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="1402" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1401" s="2" t="s">
+        <v>8363</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1402" s="3">
         <v>1401</v>
       </c>
       <c r="B1402" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="1403" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1402" s="2" t="s">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1403" s="3">
         <v>1402</v>
       </c>
       <c r="B1403" s="1" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="1404" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1403" s="2" t="s">
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1404" s="3">
         <v>1403</v>
       </c>
       <c r="B1404" s="1" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="1405" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1404" s="2" t="s">
+        <v>8366</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1405" s="3">
         <v>1404</v>
       </c>
       <c r="B1405" s="1" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="1406" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1405" s="2" t="s">
+        <v>8367</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1406" s="3">
         <v>1405</v>
       </c>
       <c r="B1406" s="1" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="1407" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1406" s="2" t="s">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1407" s="3">
         <v>1406</v>
       </c>
       <c r="B1407" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="1408" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1407" s="2" t="s">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1408" s="3">
         <v>1407</v>
       </c>
       <c r="B1408" s="1" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="1409" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1408" s="2" t="s">
+        <v>8370</v>
+      </c>
+      <c r="D1408" s="2" t="s">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1409" s="3">
         <v>1408</v>
       </c>
       <c r="B1409" s="1" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="1410" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1409" s="2" t="s">
+        <v>8372</v>
+      </c>
+      <c r="D1409" s="2" t="s">
+        <v>8373</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1410" s="3">
         <v>1409</v>
       </c>
       <c r="B1410" s="1" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="1411" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1410" s="2" t="s">
+        <v>8374</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1411" s="3">
         <v>1410</v>
       </c>
       <c r="B1411" s="1" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="1412" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1411" s="2" t="s">
+        <v>8375</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1412" s="3">
         <v>1411</v>
       </c>
       <c r="B1412" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="1413" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1412" s="2" t="s">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1413" s="3">
         <v>1412</v>
       </c>
       <c r="B1413" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="1414" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1413" s="2" t="s">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1414" s="3">
         <v>1413</v>
       </c>
       <c r="B1414" s="1" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="1415" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1414" s="2" t="s">
+        <v>8378</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1415" s="3">
         <v>1414</v>
       </c>
       <c r="B1415" s="1" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="1416" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1415" s="2" t="s">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1416" s="3">
         <v>1415</v>
       </c>
       <c r="B1416" s="1" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="1417" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1416" s="2" t="s">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1417" s="3">
         <v>1416</v>
       </c>
       <c r="B1417" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="1418" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1417" s="2" t="s">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1418" s="3">
         <v>1417</v>
       </c>
       <c r="B1418" s="1" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="1419" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1418" s="2" t="s">
+        <v>8382</v>
+      </c>
+      <c r="D1418" s="2" t="s">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1419" s="3">
         <v>1418</v>
       </c>
       <c r="B1419" s="1" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="1420" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1419" s="2" t="s">
+        <v>8382</v>
+      </c>
+      <c r="D1419" s="2" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1420" s="3">
         <v>1419</v>
       </c>
       <c r="B1420" s="1" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="1421" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1420" s="2" t="s">
+        <v>8385</v>
+      </c>
+      <c r="D1420" s="2" t="s">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1421" s="3">
         <v>1420</v>
       </c>
       <c r="B1421" s="1" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="1422" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1421" s="2" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1422" s="3">
         <v>1421</v>
       </c>
       <c r="B1422" s="1" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="1423" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1422" s="2" t="s">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1423" s="3">
         <v>1422</v>
       </c>
       <c r="B1423" s="1" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1424" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1423" s="2" t="s">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1424" s="3">
         <v>1423</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="1425" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1424" s="2" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1425" s="3">
         <v>1424</v>
       </c>
       <c r="B1425" s="1" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="1426" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1425" s="2" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1426" s="3">
         <v>1425</v>
       </c>
       <c r="B1426" s="1" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="1427" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1426" s="2" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1427" s="3">
         <v>1426</v>
       </c>
       <c r="B1427" s="1" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="1428" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1427" s="2" t="s">
+        <v>8393</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1428" s="3">
         <v>1427</v>
       </c>
       <c r="B1428" s="1" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="1429" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1428" s="2" t="s">
+        <v>8394</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1429" s="3">
         <v>1428</v>
       </c>
       <c r="B1429" s="1" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="1430" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1429" s="2" t="s">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1430" s="3">
         <v>1429</v>
       </c>
       <c r="B1430" s="1" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="1431" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1430" s="2" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1431" s="3">
         <v>1430</v>
       </c>
       <c r="B1431" s="1" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="1432" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1431" s="2" t="s">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1432" s="3">
         <v>1431</v>
       </c>
       <c r="B1432" s="1" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="1433" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1432" s="2" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1433" s="3">
         <v>1432</v>
       </c>
       <c r="B1433" s="1" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="1434" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1433" s="2" t="s">
+        <v>8399</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1434" s="3">
         <v>1433</v>
       </c>
       <c r="B1434" s="1" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="1435" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1434" s="2" t="s">
+        <v>8400</v>
+      </c>
+      <c r="D1434" s="2" t="s">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1435" s="3">
         <v>1434</v>
       </c>
       <c r="B1435" s="1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="1436" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1435" s="2" t="s">
+        <v>8402</v>
+      </c>
+      <c r="D1435" s="2" t="s">
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1436" s="3">
         <v>1435</v>
       </c>
       <c r="B1436" s="1" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="1437" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1436" s="2" t="s">
+        <v>8402</v>
+      </c>
+      <c r="D1436" s="2" t="s">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1437" s="3">
         <v>1436</v>
       </c>
       <c r="B1437" s="1" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="1438" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1437" s="2" t="s">
+        <v>8402</v>
+      </c>
+      <c r="D1437" s="2" t="s">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1438" s="3">
         <v>1437</v>
       </c>
       <c r="B1438" s="1" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="1439" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1438" s="2" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1439" s="3">
         <v>1438</v>
       </c>
       <c r="B1439" s="1" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="1440" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1439" s="2" t="s">
+        <v>8407</v>
+      </c>
+      <c r="D1439" s="2" t="s">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1440" s="3">
         <v>1439</v>
       </c>
       <c r="B1440" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="1441" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1440" s="2" t="s">
+        <v>8409</v>
+      </c>
+      <c r="D1440" s="2" t="s">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1441" s="3">
         <v>1440</v>
       </c>
       <c r="B1441" s="1" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="1442" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1441" s="2" t="s">
+        <v>8411</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1442" s="3">
         <v>1441</v>
       </c>
       <c r="B1442" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="1443" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1442" s="2" t="s">
+        <v>8412</v>
+      </c>
+      <c r="D1442" s="2" t="s">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1443" s="3">
         <v>1442</v>
       </c>
       <c r="B1443" s="1" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="1444" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1443" s="2" t="s">
+        <v>8414</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1444" s="3">
         <v>1443</v>
       </c>
       <c r="B1444" s="1" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="1445" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1444" s="2" t="s">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1445" s="3">
         <v>1444</v>
       </c>
       <c r="B1445" s="1" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="1446" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1445" s="2" t="s">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1446" s="3">
         <v>1445</v>
       </c>
       <c r="B1446" s="1" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="1447" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1446" s="2" t="s">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1447" s="3">
         <v>1446</v>
       </c>
       <c r="B1447" s="1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="1448" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1447" s="2" t="s">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1448" s="3">
         <v>1447</v>
       </c>
       <c r="B1448" s="1" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="1449" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1448" s="2" t="s">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1449" s="3">
         <v>1448</v>
       </c>
       <c r="B1449" s="1" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="1450" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1449" s="2" t="s">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1450" s="3">
         <v>1449</v>
       </c>
       <c r="B1450" s="1" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="1451" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1450" s="2" t="s">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1451" s="3">
         <v>1450</v>
       </c>
       <c r="B1451" s="1" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="1452" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1451" s="2" t="s">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1452" s="3">
         <v>1451</v>
       </c>
       <c r="B1452" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="1453" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1452" s="2" t="s">
+        <v>8423</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1453" s="3">
         <v>1452</v>
       </c>
       <c r="B1453" s="1" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="1454" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1453" s="2" t="s">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1454" s="3">
         <v>1453</v>
       </c>
       <c r="B1454" s="1" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="1455" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1454" s="2" t="s">
+        <v>8425</v>
+      </c>
+      <c r="D1454" s="2" t="s">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1455" s="3">
         <v>1454</v>
       </c>
       <c r="B1455" s="1" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="1456" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1455" s="2" t="s">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1456" s="3">
         <v>1455</v>
       </c>
       <c r="B1456" s="1" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="1457" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1456" s="2" t="s">
+        <v>8428</v>
+      </c>
+      <c r="D1456" s="2" t="s">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1457" s="3">
         <v>1456</v>
       </c>
       <c r="B1457" s="1" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="1458" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1457" s="2" t="s">
+        <v>8430</v>
+      </c>
+      <c r="D1457" s="2" t="s">
+        <v>8431</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1458" s="3">
         <v>1457</v>
       </c>
       <c r="B1458" s="1" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="1459" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1458" s="2" t="s">
+        <v>8430</v>
+      </c>
+      <c r="D1458" s="2" t="s">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1459" s="3">
         <v>1458</v>
       </c>
       <c r="B1459" s="1" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="1460" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1459" s="2" t="s">
+        <v>8433</v>
+      </c>
+      <c r="D1459" s="2" t="s">
+        <v>8434</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1460" s="3">
         <v>1459</v>
       </c>
       <c r="B1460" s="1" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="1461" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1460" s="2" t="s">
+        <v>8433</v>
+      </c>
+      <c r="D1460" s="2" t="s">
+        <v>8435</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1461" s="3">
         <v>1460</v>
       </c>
       <c r="B1461" s="1" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="1462" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1461" s="2" t="s">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1462" s="3">
         <v>1461</v>
       </c>
       <c r="B1462" s="1" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="1463" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1462" s="2" t="s">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1463" s="3">
         <v>1462</v>
       </c>
       <c r="B1463" s="1" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="1464" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1463" s="2" t="s">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1464" s="3">
         <v>1463</v>
       </c>
       <c r="B1464" s="1" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="1465" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1464" s="2" t="s">
+        <v>8439</v>
+      </c>
+      <c r="D1464" s="2" t="s">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1465" s="3">
         <v>1464</v>
       </c>
       <c r="B1465" s="1" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="1466" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1465" s="2" t="s">
+        <v>8439</v>
+      </c>
+      <c r="D1465" s="2" t="s">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1466" s="3">
         <v>1465</v>
       </c>
       <c r="B1466" s="1" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="1467" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1466" s="2" t="s">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1467" s="3">
         <v>1466</v>
       </c>
       <c r="B1467" s="1" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="1468" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1467" s="2" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1468" s="3">
         <v>1467</v>
       </c>
       <c r="B1468" s="1" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="1469" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1468" s="2" t="s">
+        <v>8444</v>
+      </c>
+      <c r="D1468" s="2" t="s">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1469" s="3">
         <v>1468</v>
       </c>
       <c r="B1469" s="1" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="1470" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1469" s="2" t="s">
+        <v>8446</v>
+      </c>
+      <c r="D1469" s="2" t="s">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1470" s="3">
         <v>1469</v>
       </c>
       <c r="B1470" s="1" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="1471" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1470" s="2" t="s">
+        <v>8446</v>
+      </c>
+      <c r="D1470" s="2" t="s">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1471" s="3">
         <v>1470</v>
       </c>
       <c r="B1471" s="1" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="1472" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1471" s="2" t="s">
+        <v>8449</v>
+      </c>
+      <c r="D1471" s="2" t="s">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1472" s="3">
         <v>1471</v>
       </c>
       <c r="B1472" s="1" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="1473" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1472" s="2" t="s">
+        <v>8451</v>
+      </c>
+      <c r="D1472" s="2" t="s">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1473" s="3">
         <v>1472</v>
       </c>
       <c r="B1473" s="1" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="1474" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1473" s="2" t="s">
+        <v>8451</v>
+      </c>
+      <c r="D1473" s="2" t="s">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1474" s="3">
         <v>1473</v>
       </c>
       <c r="B1474" s="1" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="1475" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1474" s="2" t="s">
+        <v>8451</v>
+      </c>
+      <c r="D1474" s="2" t="s">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1475" s="3">
         <v>1474</v>
       </c>
       <c r="B1475" s="1" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="1476" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1475" s="2" t="s">
+        <v>8455</v>
+      </c>
+      <c r="D1475" s="2" t="s">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1476" s="3">
         <v>1475</v>
       </c>
       <c r="B1476" s="1" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="1477" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1476" s="2" t="s">
+        <v>8455</v>
+      </c>
+      <c r="D1476" s="2" t="s">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1477" s="3">
         <v>1476</v>
       </c>
       <c r="B1477" s="1" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="1478" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1477" s="2" t="s">
+        <v>8455</v>
+      </c>
+      <c r="D1477" s="2" t="s">
+        <v>8458</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1478" s="3">
         <v>1477</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="1479" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1478" s="2" t="s">
+        <v>8175</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1479" s="3">
         <v>1478</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="1480" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1479" s="2" t="s">
+        <v>8459</v>
+      </c>
+      <c r="D1479" s="2" t="s">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1480" s="3">
         <v>1479</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="1481" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1480" s="2" t="s">
+        <v>8459</v>
+      </c>
+      <c r="D1480" s="2" t="s">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1481" s="3">
         <v>1480</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="1482" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1481" s="2" t="s">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1482" s="3">
         <v>1481</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="1483" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1482" s="4" t="s">
+        <v>8462</v>
+      </c>
+      <c r="D1482" s="2" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1483" s="3">
         <v>1482</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="1484" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1483" s="2" t="s">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1484" s="3">
         <v>1483</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="1485" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1484" s="2" t="s">
+        <v>8465</v>
+      </c>
+      <c r="D1484" s="2" t="s">
+        <v>8466</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1485" s="3">
         <v>1484</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="1486" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1485" s="2" t="s">
+        <v>8467</v>
+      </c>
+      <c r="D1485" s="2" t="s">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1486" s="3">
         <v>1485</v>
       </c>
       <c r="B1486" s="1" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="1487" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1486" s="2" t="s">
+        <v>8467</v>
+      </c>
+      <c r="D1486" s="2" t="s">
+        <v>8469</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1487" s="3">
         <v>1486</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="1488" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1487" s="2" t="s">
+        <v>8470</v>
+      </c>
+      <c r="D1487" s="2" t="s">
+        <v>8471</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1488" s="3">
         <v>1487</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="1489" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1488" s="2" t="s">
+        <v>8472</v>
+      </c>
+      <c r="D1488" s="2" t="s">
+        <v>8473</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1489" s="3">
         <v>1488</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="1490" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1489" s="2" t="s">
+        <v>8474</v>
+      </c>
+      <c r="D1489" s="2" t="s">
+        <v>8475</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1490" s="3">
         <v>1489</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="1491" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1490" s="2" t="s">
+        <v>8474</v>
+      </c>
+      <c r="D1490" s="2" t="s">
+        <v>8476</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1491" s="3">
         <v>1490</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="1492" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1491" s="2" t="s">
+        <v>8477</v>
+      </c>
+      <c r="D1491" s="2" t="s">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1492" s="3">
         <v>1491</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="1493" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1492" s="2" t="s">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1493" s="3">
         <v>1492</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="1494" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1493" s="2" t="s">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1494" s="3">
         <v>1493</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="1495" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1494" s="2" t="s">
+        <v>8481</v>
+      </c>
+      <c r="D1494" s="2" t="s">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1495" s="3">
         <v>1494</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="1496" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1495" s="2" t="s">
+        <v>8481</v>
+      </c>
+      <c r="D1495" s="2" t="s">
+        <v>8483</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1496" s="3">
         <v>1495</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="1497" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1496" s="2" t="s">
+        <v>8484</v>
+      </c>
+      <c r="D1496" s="2" t="s">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1497" s="3">
         <v>1496</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="1498" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1497" s="2" t="s">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1498" s="3">
         <v>1497</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="1499" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1498" s="2" t="s">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1499" s="3">
         <v>1498</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="1500" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1499" s="2" t="s">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1500" s="3">
         <v>1499</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="1501" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1500" s="2" t="s">
+        <v>8489</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1501" s="3">
         <v>1500</v>
       </c>
       <c r="B1501" s="1" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="1502" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1501" s="2" t="s">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1502" s="3">
         <v>1501</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="1503" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1502" s="2" t="s">
+        <v>8491</v>
+      </c>
+      <c r="D1502" s="2" t="s">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1503" s="3">
         <v>1502</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="1504" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1503" s="2" t="s">
+        <v>8493</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1504" s="3">
         <v>1503</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="1505" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1504" s="2" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1505" s="3">
         <v>1504</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="1506" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1505" s="2" t="s">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1506" s="3">
         <v>1505</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="1507" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1506" s="2" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1507" s="3">
         <v>1506</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="1508" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1507" s="2" t="s">
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1508" s="3">
         <v>1507</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="1509" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1508" s="2" t="s">
+        <v>8498</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1509" s="3">
         <v>1508</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="1510" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1509" s="2" t="s">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1510" s="3">
         <v>1509</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="1511" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1510" s="2" t="s">
+        <v>8500</v>
+      </c>
+      <c r="D1510" s="2" t="s">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1511" s="3">
         <v>1510</v>
       </c>
       <c r="B1511" s="1" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="1512" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1511" s="2" t="s">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1512" s="3">
         <v>1511</v>
       </c>
       <c r="B1512" s="1" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="1513" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1512" s="2" t="s">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1513" s="3">
         <v>1512</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="1514" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1513" s="2" t="s">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1514" s="3">
         <v>1513</v>
       </c>
       <c r="B1514" s="1" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="1515" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1514" s="2" t="s">
+        <v>7342</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1515" s="3">
         <v>1514</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="1516" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1515" s="2" t="s">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1516" s="3">
         <v>1515</v>
       </c>
       <c r="B1516" s="1" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="1517" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1516" s="2" t="s">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1517" s="3">
         <v>1516</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="1518" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1517" s="2" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1518" s="3">
         <v>1517</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="1519" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1518" s="2" t="s">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1519" s="3">
         <v>1518</v>
       </c>
       <c r="B1519" s="1" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="1520" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1519" s="2" t="s">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1520" s="3">
         <v>1519</v>
       </c>
       <c r="B1520" s="1" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="1521" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1520" s="2" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1521" s="3">
         <v>1520</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="1522" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1521" s="2" t="s">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1522" s="3">
         <v>1521</v>
       </c>
       <c r="B1522" s="1" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="1523" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1522" s="2" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1523" s="3">
         <v>1522</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="1524" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1523" s="2" t="s">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1524" s="3">
         <v>1523</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="1525" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1524" s="2" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1525" s="3">
         <v>1524</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="1526" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1525" s="2" t="s">
+        <v>8515</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1526" s="3">
         <v>1525</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="1527" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1526" s="2" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1527" s="3">
         <v>1526</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="1528" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1527" s="2" t="s">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1528" s="3">
         <v>1527</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="1529" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1528" s="2" t="s">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1529" s="3">
         <v>1528</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="1530" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1529" s="2" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1530" s="3">
         <v>1529</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="1531" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1530" s="2" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1531" s="3">
         <v>1530</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="1532" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1531" s="2" t="s">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1532" s="3">
         <v>1531</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="1533" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1532" s="2" t="s">
+        <v>8522</v>
+      </c>
+      <c r="D1532" s="2" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1533" s="3">
         <v>1532</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="1534" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1533" s="2" t="s">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1534" s="3">
         <v>1533</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="1535" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1534" s="2" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1535" s="3">
         <v>1534</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="1536" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1535" s="2" t="s">
+        <v>8526</v>
+      </c>
+      <c r="D1535" s="2" t="s">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1536" s="3">
         <v>1535</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="1537" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1536" s="2" t="s">
+        <v>8528</v>
+      </c>
+      <c r="D1536" s="2" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1537" s="3">
         <v>1536</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="1538" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1537" s="2" t="s">
+        <v>8530</v>
+      </c>
+      <c r="D1537" s="2" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1538" s="3">
         <v>1537</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="1539" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1538" s="2" t="s">
+        <v>8532</v>
+      </c>
+      <c r="D1538" s="2" t="s">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1539" s="3">
         <v>1538</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="1540" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1539" s="2" t="s">
+        <v>8534</v>
+      </c>
+      <c r="D1539" s="2" t="s">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1540" s="3">
         <v>1539</v>
       </c>
@@ -43399,7 +48229,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="1541" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1541" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1541" s="3">
         <v>1540</v>
       </c>
@@ -43407,7 +48237,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="1542" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1542" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1542" s="3">
         <v>1541</v>
       </c>
@@ -43415,7 +48245,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="1543" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1543" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1543" s="3">
         <v>1542</v>
       </c>
@@ -43423,7 +48253,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="1544" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1544" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1544" s="3">
         <v>1543</v>
       </c>
@@ -43431,7 +48261,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="1545" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1545" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1545" s="3">
         <v>1544</v>
       </c>
@@ -43439,7 +48269,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="1546" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1546" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1546" s="3">
         <v>1545</v>
       </c>
@@ -43447,7 +48277,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="1547" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1547" s="3">
         <v>1546</v>
       </c>
@@ -43455,7 +48285,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="1548" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1548" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1548" s="3">
         <v>1547</v>
       </c>
@@ -43463,7 +48293,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="1549" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1549" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1549" s="3">
         <v>1548</v>
       </c>
@@ -43471,7 +48301,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="1550" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1550" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1550" s="3">
         <v>1549</v>
       </c>
@@ -43479,7 +48309,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="1551" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1551" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1551" s="3">
         <v>1550</v>
       </c>
@@ -43487,7 +48317,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="1552" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1552" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1552" s="3">
         <v>1551</v>
       </c>
